--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Dev Information Technology Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Dev Information Technology Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
@@ -714,7 +714,7 @@
         <v>0.4</v>
       </c>
       <c r="AH2">
-        <v>4.8975</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -818,7 +818,7 @@
         <v>0.4</v>
       </c>
       <c r="AH3">
-        <v>4.8975</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -904,7 +904,7 @@
         <v>3.17</v>
       </c>
       <c r="AB4">
-        <v>1.122222222222222</v>
+        <v>1.12</v>
       </c>
       <c r="AC4">
         <v>32.9</v>
@@ -1329,7 +1329,7 @@
         <v>63.14</v>
       </c>
       <c r="AE8">
-        <v>0.1171428571428571</v>
+        <v>0.12</v>
       </c>
       <c r="AF8">
         <v>21.7</v>
@@ -1537,7 +1537,7 @@
         <v>67.87</v>
       </c>
       <c r="AE10">
-        <v>0.1171428571428571</v>
+        <v>0.12</v>
       </c>
       <c r="AF10">
         <v>23.67</v>
@@ -1575,7 +1575,7 @@
         <v>0.23</v>
       </c>
       <c r="I11">
-        <v>0.1688888888888889</v>
+        <v>0.17</v>
       </c>
       <c r="J11">
         <v>0.04</v>
@@ -1641,10 +1641,10 @@
         <v>88.72</v>
       </c>
       <c r="AE11">
-        <v>0.1171428571428571</v>
+        <v>0.12</v>
       </c>
       <c r="AF11">
-        <v>14.99555555555555</v>
+        <v>15</v>
       </c>
       <c r="AG11">
         <v>9.4</v>
